--- a/house/hznew.xlsx
+++ b/house/hznew.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Project/reptilian/house/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\reptilian\house\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="杭州新房" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1847,12 +1847,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1860,8 +1860,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1907,13 +1914,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2208,22 +2218,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2292,7 +2302,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2370,7 +2380,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2396,7 +2406,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2422,7 +2432,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2448,7 +2458,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2474,7 +2484,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2572,7 +2582,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2618,7 +2628,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2800,7 +2810,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2826,7 +2836,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2904,7 +2914,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2930,7 +2940,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2982,7 +2992,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3008,7 +3018,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3034,7 +3044,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3086,7 +3096,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3112,7 +3122,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3164,7 +3174,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3216,7 +3226,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3372,7 +3382,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3424,7 +3434,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3450,7 +3460,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3528,7 +3538,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3626,7 +3636,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3646,7 +3656,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3686,7 +3696,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3778,7 +3788,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3890,7 +3900,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4010,7 +4020,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4030,7 +4040,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4108,7 +4118,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4238,7 +4248,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4310,7 +4320,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4336,7 +4346,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4388,7 +4398,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4414,7 +4424,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4492,7 +4502,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4544,7 +4554,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4616,7 +4626,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4694,7 +4704,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4772,7 +4782,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4792,7 +4802,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4812,7 +4822,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4838,7 +4848,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5072,7 +5082,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5124,7 +5134,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5150,7 +5160,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5176,7 +5186,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5228,7 +5238,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5254,7 +5264,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5320,7 +5330,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5444,7 +5454,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5470,7 +5480,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5496,7 +5506,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5542,7 +5552,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5568,7 +5578,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5589,6 +5599,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>